--- a/Data_File_S2_Morphological_Traits.xlsx
+++ b/Data_File_S2_Morphological_Traits.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikaellison/Library/Mobile Documents/com~apple~CloudDocs/Documents/umn.pmb/SpringerLab/manuscripts/grn_ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7C9EA-38BC-0C47-AABD-DD8E90DC5887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169725A5-4A35-A843-9004-D2F41D13D4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="500" windowWidth="42940" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53520" yWindow="-1620" windowWidth="21600" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019_PHT_EHT_raw" sheetId="3" r:id="rId1"/>
     <sheet name="2019_PHT-EHT_t-test" sheetId="4" r:id="rId2"/>
-    <sheet name="2019_DTF-DTS_Raw" sheetId="6" r:id="rId3"/>
-    <sheet name="2019_DTF-DTS_Mean" sheetId="5" r:id="rId4"/>
+    <sheet name="2019_DTT-DTS_Raw" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2019_DTF-DTS_Raw'!$A$1:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2019_DTT-DTS_Raw'!$A$1:$G$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019_PHT_EHT_raw'!$A$1:$H$894</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="101">
   <si>
     <t>Genotype</t>
   </si>
@@ -258,25 +257,7 @@
     <t>Field</t>
   </si>
   <si>
-    <t>mutant</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>mean_DTS</t>
-  </si>
-  <si>
-    <t>mean_DTF</t>
-  </si>
-  <si>
     <t>DTS</t>
-  </si>
-  <si>
-    <t>DTF</t>
   </si>
   <si>
     <t>Stand</t>
@@ -358,6 +339,9 @@
   </si>
   <si>
     <t>myb40-m1</t>
+  </si>
+  <si>
+    <t>DTT</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1235,7 @@
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="A1:F894"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>69</v>
@@ -2792,7 +2776,7 @@
         <v>43</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>5</v>
@@ -2812,7 +2796,7 @@
         <v>43</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>5</v>
@@ -3032,7 +3016,7 @@
         <v>43</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
@@ -3052,7 +3036,7 @@
         <v>43</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>5</v>
@@ -3072,7 +3056,7 @@
         <v>43</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
@@ -3092,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>5</v>
@@ -3112,7 +3096,7 @@
         <v>43</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>5</v>
@@ -3132,7 +3116,7 @@
         <v>43</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
@@ -3152,7 +3136,7 @@
         <v>43</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>5</v>
@@ -3172,7 +3156,7 @@
         <v>43</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>5</v>
@@ -3192,7 +3176,7 @@
         <v>42</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>5</v>
@@ -3212,7 +3196,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>5</v>
@@ -3432,7 +3416,7 @@
         <v>42</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>5</v>
@@ -3452,7 +3436,7 @@
         <v>42</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>5</v>
@@ -3472,7 +3456,7 @@
         <v>42</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>5</v>
@@ -3492,7 +3476,7 @@
         <v>42</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>5</v>
@@ -3512,7 +3496,7 @@
         <v>42</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>5</v>
@@ -3532,7 +3516,7 @@
         <v>42</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>5</v>
@@ -3552,7 +3536,7 @@
         <v>42</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>5</v>
@@ -3572,7 +3556,7 @@
         <v>42</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>5</v>
@@ -3592,7 +3576,7 @@
         <v>41</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>5</v>
@@ -3612,7 +3596,7 @@
         <v>41</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>5</v>
@@ -3832,7 +3816,7 @@
         <v>41</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>5</v>
@@ -3852,7 +3836,7 @@
         <v>41</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>5</v>
@@ -3872,7 +3856,7 @@
         <v>41</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>5</v>
@@ -3892,7 +3876,7 @@
         <v>41</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>5</v>
@@ -3912,7 +3896,7 @@
         <v>41</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>5</v>
@@ -3932,7 +3916,7 @@
         <v>41</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>5</v>
@@ -3952,7 +3936,7 @@
         <v>41</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>5</v>
@@ -3972,7 +3956,7 @@
         <v>41</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>5</v>
@@ -7092,7 +7076,7 @@
         <v>43</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>9</v>
@@ -7112,7 +7096,7 @@
         <v>43</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>9</v>
@@ -7132,7 +7116,7 @@
         <v>43</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>9</v>
@@ -7152,7 +7136,7 @@
         <v>43</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>9</v>
@@ -7172,7 +7156,7 @@
         <v>43</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>9</v>
@@ -7192,7 +7176,7 @@
         <v>43</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>9</v>
@@ -7212,7 +7196,7 @@
         <v>43</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>9</v>
@@ -7232,7 +7216,7 @@
         <v>43</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>9</v>
@@ -7252,7 +7236,7 @@
         <v>43</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>9</v>
@@ -7272,7 +7256,7 @@
         <v>43</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>9</v>
@@ -7492,7 +7476,7 @@
         <v>42</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>9</v>
@@ -7512,7 +7496,7 @@
         <v>42</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>9</v>
@@ -7532,7 +7516,7 @@
         <v>42</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>9</v>
@@ -7552,7 +7536,7 @@
         <v>42</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>9</v>
@@ -7572,7 +7556,7 @@
         <v>42</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>9</v>
@@ -7592,7 +7576,7 @@
         <v>42</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>9</v>
@@ -7612,7 +7596,7 @@
         <v>42</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>9</v>
@@ -7632,7 +7616,7 @@
         <v>42</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>9</v>
@@ -7652,7 +7636,7 @@
         <v>42</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>9</v>
@@ -7672,7 +7656,7 @@
         <v>42</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>9</v>
@@ -7892,7 +7876,7 @@
         <v>41</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>9</v>
@@ -7912,7 +7896,7 @@
         <v>41</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>9</v>
@@ -7932,7 +7916,7 @@
         <v>41</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>9</v>
@@ -7952,7 +7936,7 @@
         <v>41</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>9</v>
@@ -7972,7 +7956,7 @@
         <v>41</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>9</v>
@@ -7992,7 +7976,7 @@
         <v>41</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>9</v>
@@ -8012,7 +7996,7 @@
         <v>41</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>9</v>
@@ -8032,7 +8016,7 @@
         <v>41</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>9</v>
@@ -8052,7 +8036,7 @@
         <v>41</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>9</v>
@@ -8072,7 +8056,7 @@
         <v>41</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>9</v>
@@ -8292,7 +8276,7 @@
         <v>40</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>9</v>
@@ -8312,7 +8296,7 @@
         <v>40</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>9</v>
@@ -8332,7 +8316,7 @@
         <v>40</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>9</v>
@@ -8352,7 +8336,7 @@
         <v>40</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>9</v>
@@ -8372,7 +8356,7 @@
         <v>40</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>9</v>
@@ -8392,7 +8376,7 @@
         <v>40</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>9</v>
@@ -8412,7 +8396,7 @@
         <v>40</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>9</v>
@@ -8432,7 +8416,7 @@
         <v>40</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>9</v>
@@ -10172,7 +10156,7 @@
         <v>64</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>5</v>
@@ -10192,7 +10176,7 @@
         <v>64</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>5</v>
@@ -10212,7 +10196,7 @@
         <v>64</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>5</v>
@@ -10232,7 +10216,7 @@
         <v>64</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>5</v>
@@ -10252,7 +10236,7 @@
         <v>64</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>5</v>
@@ -10272,7 +10256,7 @@
         <v>64</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>5</v>
@@ -10292,7 +10276,7 @@
         <v>64</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>5</v>
@@ -10312,7 +10296,7 @@
         <v>64</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>5</v>
@@ -10332,7 +10316,7 @@
         <v>64</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>5</v>
@@ -10352,7 +10336,7 @@
         <v>64</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>5</v>
@@ -10372,7 +10356,7 @@
         <v>52</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>5</v>
@@ -10392,7 +10376,7 @@
         <v>52</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>5</v>
@@ -10412,7 +10396,7 @@
         <v>52</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>5</v>
@@ -10432,7 +10416,7 @@
         <v>52</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>5</v>
@@ -10452,7 +10436,7 @@
         <v>52</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>5</v>
@@ -10472,7 +10456,7 @@
         <v>52</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D461" s="3" t="s">
         <v>5</v>
@@ -10492,7 +10476,7 @@
         <v>52</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>5</v>
@@ -10512,7 +10496,7 @@
         <v>52</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D463" s="3" t="s">
         <v>5</v>
@@ -10532,7 +10516,7 @@
         <v>63</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>5</v>
@@ -10552,7 +10536,7 @@
         <v>63</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>5</v>
@@ -10572,7 +10556,7 @@
         <v>63</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>5</v>
@@ -10592,7 +10576,7 @@
         <v>63</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D467" s="3" t="s">
         <v>5</v>
@@ -10612,7 +10596,7 @@
         <v>63</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>5</v>
@@ -10632,7 +10616,7 @@
         <v>63</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D469" s="3" t="s">
         <v>5</v>
@@ -10652,7 +10636,7 @@
         <v>63</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>5</v>
@@ -10672,7 +10656,7 @@
         <v>63</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>5</v>
@@ -10692,7 +10676,7 @@
         <v>63</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D472" s="3" t="s">
         <v>5</v>
@@ -10712,7 +10696,7 @@
         <v>63</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>5</v>
@@ -10732,7 +10716,7 @@
         <v>52</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>5</v>
@@ -10752,7 +10736,7 @@
         <v>52</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>5</v>
@@ -10772,7 +10756,7 @@
         <v>51</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>5</v>
@@ -10792,7 +10776,7 @@
         <v>51</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>5</v>
@@ -10812,7 +10796,7 @@
         <v>51</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>5</v>
@@ -10832,7 +10816,7 @@
         <v>51</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D479" s="3" t="s">
         <v>5</v>
@@ -10852,7 +10836,7 @@
         <v>51</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>5</v>
@@ -10872,7 +10856,7 @@
         <v>51</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>5</v>
@@ -10892,7 +10876,7 @@
         <v>51</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>5</v>
@@ -10912,7 +10896,7 @@
         <v>51</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D483" s="3" t="s">
         <v>5</v>
@@ -10932,7 +10916,7 @@
         <v>62</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>5</v>
@@ -10952,7 +10936,7 @@
         <v>62</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>5</v>
@@ -10972,7 +10956,7 @@
         <v>62</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>5</v>
@@ -10992,7 +10976,7 @@
         <v>62</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>5</v>
@@ -11012,7 +10996,7 @@
         <v>62</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D488" s="3" t="s">
         <v>5</v>
@@ -11032,7 +11016,7 @@
         <v>62</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>5</v>
@@ -11052,7 +11036,7 @@
         <v>62</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>5</v>
@@ -11072,7 +11056,7 @@
         <v>62</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>5</v>
@@ -11092,7 +11076,7 @@
         <v>62</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>5</v>
@@ -11112,7 +11096,7 @@
         <v>62</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>5</v>
@@ -11132,7 +11116,7 @@
         <v>51</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>5</v>
@@ -11152,7 +11136,7 @@
         <v>51</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>5</v>
@@ -11172,7 +11156,7 @@
         <v>50</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>5</v>
@@ -11192,7 +11176,7 @@
         <v>50</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>5</v>
@@ -11212,7 +11196,7 @@
         <v>50</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>5</v>
@@ -11232,7 +11216,7 @@
         <v>50</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>5</v>
@@ -11252,7 +11236,7 @@
         <v>50</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>5</v>
@@ -11272,7 +11256,7 @@
         <v>50</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>5</v>
@@ -11292,7 +11276,7 @@
         <v>50</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>5</v>
@@ -11312,7 +11296,7 @@
         <v>50</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D503" s="3" t="s">
         <v>5</v>
@@ -11332,7 +11316,7 @@
         <v>61</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D504" s="3" t="s">
         <v>5</v>
@@ -11352,7 +11336,7 @@
         <v>61</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D505" s="3" t="s">
         <v>5</v>
@@ -11372,7 +11356,7 @@
         <v>61</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>5</v>
@@ -11392,7 +11376,7 @@
         <v>61</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>5</v>
@@ -11412,7 +11396,7 @@
         <v>61</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>5</v>
@@ -11432,7 +11416,7 @@
         <v>61</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D509" s="3" t="s">
         <v>5</v>
@@ -11452,7 +11436,7 @@
         <v>61</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>5</v>
@@ -11472,7 +11456,7 @@
         <v>61</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>5</v>
@@ -11492,7 +11476,7 @@
         <v>61</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>5</v>
@@ -11512,7 +11496,7 @@
         <v>50</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>5</v>
@@ -11532,7 +11516,7 @@
         <v>50</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D514" s="3" t="s">
         <v>5</v>
@@ -11552,7 +11536,7 @@
         <v>49</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>5</v>
@@ -11572,7 +11556,7 @@
         <v>49</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D516" s="3" t="s">
         <v>5</v>
@@ -11592,7 +11576,7 @@
         <v>49</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D517" s="3" t="s">
         <v>5</v>
@@ -11612,7 +11596,7 @@
         <v>49</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D518" s="3" t="s">
         <v>5</v>
@@ -11632,7 +11616,7 @@
         <v>49</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D519" s="3" t="s">
         <v>5</v>
@@ -11652,7 +11636,7 @@
         <v>60</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>5</v>
@@ -11672,7 +11656,7 @@
         <v>60</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>5</v>
@@ -11692,7 +11676,7 @@
         <v>60</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>5</v>
@@ -11712,7 +11696,7 @@
         <v>60</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>5</v>
@@ -11732,7 +11716,7 @@
         <v>60</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D524" s="3" t="s">
         <v>5</v>
@@ -11752,7 +11736,7 @@
         <v>60</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D525" s="3" t="s">
         <v>5</v>
@@ -11772,7 +11756,7 @@
         <v>49</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D526" s="3" t="s">
         <v>5</v>
@@ -11792,7 +11776,7 @@
         <v>49</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D527" s="3" t="s">
         <v>5</v>
@@ -11812,7 +11796,7 @@
         <v>49</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D528" s="3" t="s">
         <v>5</v>
@@ -11832,7 +11816,7 @@
         <v>49</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D529" s="3" t="s">
         <v>5</v>
@@ -11852,7 +11836,7 @@
         <v>49</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D530" s="3" t="s">
         <v>5</v>
@@ -11872,7 +11856,7 @@
         <v>48</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D531" s="3" t="s">
         <v>5</v>
@@ -11892,7 +11876,7 @@
         <v>48</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D532" s="3" t="s">
         <v>5</v>
@@ -11912,7 +11896,7 @@
         <v>48</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>5</v>
@@ -11932,7 +11916,7 @@
         <v>59</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D534" s="3" t="s">
         <v>5</v>
@@ -11952,7 +11936,7 @@
         <v>59</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D535" s="3" t="s">
         <v>5</v>
@@ -11972,7 +11956,7 @@
         <v>59</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>5</v>
@@ -11992,7 +11976,7 @@
         <v>59</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D537" s="3" t="s">
         <v>5</v>
@@ -12012,7 +11996,7 @@
         <v>59</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>5</v>
@@ -12032,7 +12016,7 @@
         <v>59</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D539" s="3" t="s">
         <v>5</v>
@@ -12052,7 +12036,7 @@
         <v>59</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D540" s="3" t="s">
         <v>5</v>
@@ -12072,7 +12056,7 @@
         <v>59</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D541" s="3" t="s">
         <v>5</v>
@@ -12092,7 +12076,7 @@
         <v>59</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D542" s="3" t="s">
         <v>5</v>
@@ -12112,7 +12096,7 @@
         <v>59</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D543" s="3" t="s">
         <v>5</v>
@@ -12132,7 +12116,7 @@
         <v>48</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D544" s="3" t="s">
         <v>5</v>
@@ -12152,7 +12136,7 @@
         <v>48</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D545" s="3" t="s">
         <v>5</v>
@@ -12172,7 +12156,7 @@
         <v>48</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D546" s="3" t="s">
         <v>5</v>
@@ -12192,7 +12176,7 @@
         <v>48</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D547" s="3" t="s">
         <v>5</v>
@@ -12212,7 +12196,7 @@
         <v>48</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D548" s="3" t="s">
         <v>5</v>
@@ -12232,7 +12216,7 @@
         <v>48</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D549" s="3" t="s">
         <v>5</v>
@@ -12252,7 +12236,7 @@
         <v>48</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D550" s="3" t="s">
         <v>5</v>
@@ -12272,7 +12256,7 @@
         <v>47</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D551" s="3" t="s">
         <v>5</v>
@@ -12292,7 +12276,7 @@
         <v>47</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D552" s="3" t="s">
         <v>5</v>
@@ -12312,7 +12296,7 @@
         <v>47</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D553" s="3" t="s">
         <v>5</v>
@@ -12332,7 +12316,7 @@
         <v>58</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D554" s="3" t="s">
         <v>5</v>
@@ -12352,7 +12336,7 @@
         <v>58</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D555" s="3" t="s">
         <v>5</v>
@@ -12372,7 +12356,7 @@
         <v>58</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D556" s="3" t="s">
         <v>5</v>
@@ -12392,7 +12376,7 @@
         <v>58</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D557" s="3" t="s">
         <v>5</v>
@@ -12412,7 +12396,7 @@
         <v>58</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D558" s="3" t="s">
         <v>5</v>
@@ -12432,7 +12416,7 @@
         <v>58</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D559" s="3" t="s">
         <v>5</v>
@@ -12452,7 +12436,7 @@
         <v>58</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D560" s="3" t="s">
         <v>5</v>
@@ -12472,7 +12456,7 @@
         <v>58</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D561" s="3" t="s">
         <v>5</v>
@@ -12492,7 +12476,7 @@
         <v>58</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D562" s="3" t="s">
         <v>5</v>
@@ -12512,7 +12496,7 @@
         <v>58</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D563" s="3" t="s">
         <v>5</v>
@@ -12532,7 +12516,7 @@
         <v>47</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D564" s="3" t="s">
         <v>5</v>
@@ -12552,7 +12536,7 @@
         <v>47</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D565" s="3" t="s">
         <v>5</v>
@@ -12572,7 +12556,7 @@
         <v>47</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D566" s="3" t="s">
         <v>5</v>
@@ -12592,7 +12576,7 @@
         <v>47</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D567" s="3" t="s">
         <v>5</v>
@@ -12612,7 +12596,7 @@
         <v>47</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D568" s="3" t="s">
         <v>5</v>
@@ -12632,7 +12616,7 @@
         <v>47</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D569" s="3" t="s">
         <v>5</v>
@@ -12652,7 +12636,7 @@
         <v>47</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D570" s="3" t="s">
         <v>5</v>
@@ -12672,7 +12656,7 @@
         <v>46</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D571" s="3" t="s">
         <v>5</v>
@@ -12692,7 +12676,7 @@
         <v>46</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D572" s="3" t="s">
         <v>5</v>
@@ -12712,7 +12696,7 @@
         <v>57</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D573" s="3" t="s">
         <v>5</v>
@@ -12732,7 +12716,7 @@
         <v>57</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D574" s="3" t="s">
         <v>5</v>
@@ -12752,7 +12736,7 @@
         <v>57</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D575" s="3" t="s">
         <v>5</v>
@@ -12772,7 +12756,7 @@
         <v>57</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D576" s="3" t="s">
         <v>5</v>
@@ -12792,7 +12776,7 @@
         <v>57</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D577" s="3" t="s">
         <v>5</v>
@@ -12812,7 +12796,7 @@
         <v>57</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D578" s="3" t="s">
         <v>5</v>
@@ -12832,7 +12816,7 @@
         <v>57</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D579" s="3" t="s">
         <v>5</v>
@@ -12852,7 +12836,7 @@
         <v>57</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D580" s="3" t="s">
         <v>5</v>
@@ -12872,7 +12856,7 @@
         <v>57</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D581" s="3" t="s">
         <v>5</v>
@@ -12892,7 +12876,7 @@
         <v>57</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D582" s="3" t="s">
         <v>5</v>
@@ -12912,7 +12896,7 @@
         <v>46</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D583" s="3" t="s">
         <v>5</v>
@@ -12932,7 +12916,7 @@
         <v>46</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D584" s="3" t="s">
         <v>5</v>
@@ -12952,7 +12936,7 @@
         <v>46</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D585" s="3" t="s">
         <v>5</v>
@@ -12972,7 +12956,7 @@
         <v>46</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D586" s="3" t="s">
         <v>5</v>
@@ -12992,7 +12976,7 @@
         <v>46</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D587" s="3" t="s">
         <v>5</v>
@@ -13012,7 +12996,7 @@
         <v>46</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D588" s="3" t="s">
         <v>5</v>
@@ -13032,7 +13016,7 @@
         <v>46</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D589" s="3" t="s">
         <v>5</v>
@@ -13052,7 +13036,7 @@
         <v>46</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D590" s="3" t="s">
         <v>5</v>
@@ -13072,7 +13056,7 @@
         <v>44</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D591" s="3" t="s">
         <v>5</v>
@@ -13092,7 +13076,7 @@
         <v>44</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D592" s="3" t="s">
         <v>5</v>
@@ -13112,7 +13096,7 @@
         <v>56</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D593" s="3" t="s">
         <v>5</v>
@@ -13132,7 +13116,7 @@
         <v>56</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D594" s="3" t="s">
         <v>5</v>
@@ -13152,7 +13136,7 @@
         <v>56</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D595" s="3" t="s">
         <v>5</v>
@@ -13172,7 +13156,7 @@
         <v>56</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D596" s="3" t="s">
         <v>5</v>
@@ -13192,7 +13176,7 @@
         <v>56</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D597" s="3" t="s">
         <v>5</v>
@@ -13212,7 +13196,7 @@
         <v>56</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D598" s="3" t="s">
         <v>5</v>
@@ -13232,7 +13216,7 @@
         <v>56</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D599" s="3" t="s">
         <v>5</v>
@@ -13252,7 +13236,7 @@
         <v>56</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D600" s="3" t="s">
         <v>5</v>
@@ -13272,7 +13256,7 @@
         <v>56</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D601" s="3" t="s">
         <v>5</v>
@@ -13292,7 +13276,7 @@
         <v>56</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D602" s="3" t="s">
         <v>5</v>
@@ -13312,7 +13296,7 @@
         <v>44</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D603" s="3" t="s">
         <v>5</v>
@@ -13332,7 +13316,7 @@
         <v>44</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D604" s="3" t="s">
         <v>5</v>
@@ -13352,7 +13336,7 @@
         <v>44</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D605" s="3" t="s">
         <v>5</v>
@@ -13372,7 +13356,7 @@
         <v>44</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D606" s="3" t="s">
         <v>5</v>
@@ -13392,7 +13376,7 @@
         <v>44</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D607" s="3" t="s">
         <v>5</v>
@@ -13412,7 +13396,7 @@
         <v>44</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D608" s="3" t="s">
         <v>5</v>
@@ -13432,7 +13416,7 @@
         <v>44</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D609" s="3" t="s">
         <v>5</v>
@@ -13452,7 +13436,7 @@
         <v>44</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D610" s="3" t="s">
         <v>5</v>
@@ -13472,7 +13456,7 @@
         <v>55</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D611" s="3" t="s">
         <v>5</v>
@@ -13492,7 +13476,7 @@
         <v>55</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D612" s="3" t="s">
         <v>5</v>
@@ -13512,7 +13496,7 @@
         <v>55</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D613" s="3" t="s">
         <v>5</v>
@@ -13532,7 +13516,7 @@
         <v>55</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D614" s="3" t="s">
         <v>5</v>
@@ -13552,7 +13536,7 @@
         <v>55</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D615" s="3" t="s">
         <v>5</v>
@@ -13572,7 +13556,7 @@
         <v>55</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D616" s="3" t="s">
         <v>5</v>
@@ -13592,7 +13576,7 @@
         <v>55</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D617" s="3" t="s">
         <v>5</v>
@@ -13612,7 +13596,7 @@
         <v>55</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D618" s="3" t="s">
         <v>5</v>
@@ -13632,7 +13616,7 @@
         <v>55</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D619" s="3" t="s">
         <v>5</v>
@@ -13652,7 +13636,7 @@
         <v>55</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D620" s="3" t="s">
         <v>5</v>
@@ -13672,7 +13656,7 @@
         <v>54</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D621" s="3" t="s">
         <v>5</v>
@@ -13692,7 +13676,7 @@
         <v>54</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D622" s="3" t="s">
         <v>5</v>
@@ -13712,7 +13696,7 @@
         <v>54</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D623" s="3" t="s">
         <v>5</v>
@@ -13732,7 +13716,7 @@
         <v>54</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D624" s="3" t="s">
         <v>5</v>
@@ -13752,7 +13736,7 @@
         <v>54</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D625" s="3" t="s">
         <v>5</v>
@@ -13772,7 +13756,7 @@
         <v>54</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D626" s="3" t="s">
         <v>5</v>
@@ -13792,7 +13776,7 @@
         <v>54</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D627" s="3" t="s">
         <v>5</v>
@@ -13812,7 +13796,7 @@
         <v>54</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D628" s="3" t="s">
         <v>5</v>
@@ -13832,7 +13816,7 @@
         <v>54</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D629" s="3" t="s">
         <v>5</v>
@@ -13852,7 +13836,7 @@
         <v>54</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D630" s="3" t="s">
         <v>5</v>
@@ -13872,7 +13856,7 @@
         <v>53</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D631" s="3" t="s">
         <v>5</v>
@@ -13892,7 +13876,7 @@
         <v>53</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D632" s="3" t="s">
         <v>5</v>
@@ -13912,7 +13896,7 @@
         <v>53</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D633" s="3" t="s">
         <v>5</v>
@@ -13932,7 +13916,7 @@
         <v>53</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D634" s="3" t="s">
         <v>5</v>
@@ -13952,7 +13936,7 @@
         <v>53</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D635" s="3" t="s">
         <v>5</v>
@@ -13972,7 +13956,7 @@
         <v>53</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D636" s="3" t="s">
         <v>5</v>
@@ -13992,7 +13976,7 @@
         <v>53</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D637" s="3" t="s">
         <v>5</v>
@@ -14012,7 +13996,7 @@
         <v>53</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D638" s="3" t="s">
         <v>5</v>
@@ -14032,7 +14016,7 @@
         <v>53</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D639" s="3" t="s">
         <v>5</v>
@@ -14052,7 +14036,7 @@
         <v>53</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D640" s="3" t="s">
         <v>5</v>
@@ -14652,7 +14636,7 @@
         <v>64</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D670" s="3" t="s">
         <v>9</v>
@@ -14672,7 +14656,7 @@
         <v>64</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D671" s="3" t="s">
         <v>9</v>
@@ -14692,7 +14676,7 @@
         <v>64</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D672" s="3" t="s">
         <v>9</v>
@@ -14712,7 +14696,7 @@
         <v>64</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D673" s="3" t="s">
         <v>9</v>
@@ -14732,7 +14716,7 @@
         <v>64</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D674" s="3" t="s">
         <v>9</v>
@@ -14752,7 +14736,7 @@
         <v>64</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D675" s="3" t="s">
         <v>9</v>
@@ -14772,7 +14756,7 @@
         <v>64</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D676" s="3" t="s">
         <v>9</v>
@@ -14792,7 +14776,7 @@
         <v>64</v>
       </c>
       <c r="C677" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D677" s="3" t="s">
         <v>9</v>
@@ -14812,7 +14796,7 @@
         <v>64</v>
       </c>
       <c r="C678" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D678" s="3" t="s">
         <v>9</v>
@@ -14832,7 +14816,7 @@
         <v>64</v>
       </c>
       <c r="C679" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D679" s="3" t="s">
         <v>9</v>
@@ -14852,7 +14836,7 @@
         <v>52</v>
       </c>
       <c r="C680" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D680" s="3" t="s">
         <v>9</v>
@@ -14872,7 +14856,7 @@
         <v>52</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D681" s="3" t="s">
         <v>9</v>
@@ -14892,7 +14876,7 @@
         <v>52</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D682" s="3" t="s">
         <v>9</v>
@@ -14912,7 +14896,7 @@
         <v>52</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D683" s="3" t="s">
         <v>9</v>
@@ -14932,7 +14916,7 @@
         <v>52</v>
       </c>
       <c r="C684" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D684" s="3" t="s">
         <v>9</v>
@@ -14952,7 +14936,7 @@
         <v>52</v>
       </c>
       <c r="C685" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D685" s="3" t="s">
         <v>9</v>
@@ -14972,7 +14956,7 @@
         <v>52</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D686" s="3" t="s">
         <v>9</v>
@@ -14992,7 +14976,7 @@
         <v>52</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D687" s="3" t="s">
         <v>9</v>
@@ -15012,7 +14996,7 @@
         <v>52</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D688" s="3" t="s">
         <v>9</v>
@@ -15032,7 +15016,7 @@
         <v>52</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D689" s="3" t="s">
         <v>9</v>
@@ -15052,7 +15036,7 @@
         <v>63</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D690" s="3" t="s">
         <v>9</v>
@@ -15072,7 +15056,7 @@
         <v>63</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D691" s="3" t="s">
         <v>9</v>
@@ -15092,7 +15076,7 @@
         <v>63</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D692" s="3" t="s">
         <v>9</v>
@@ -15112,7 +15096,7 @@
         <v>63</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D693" s="3" t="s">
         <v>9</v>
@@ -15132,7 +15116,7 @@
         <v>63</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D694" s="3" t="s">
         <v>9</v>
@@ -15152,7 +15136,7 @@
         <v>63</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D695" s="3" t="s">
         <v>9</v>
@@ -15172,7 +15156,7 @@
         <v>63</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D696" s="3" t="s">
         <v>9</v>
@@ -15192,7 +15176,7 @@
         <v>63</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D697" s="3" t="s">
         <v>9</v>
@@ -15212,7 +15196,7 @@
         <v>63</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D698" s="3" t="s">
         <v>9</v>
@@ -15232,7 +15216,7 @@
         <v>63</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D699" s="3" t="s">
         <v>9</v>
@@ -15252,7 +15236,7 @@
         <v>51</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D700" s="3" t="s">
         <v>9</v>
@@ -15272,7 +15256,7 @@
         <v>51</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D701" s="3" t="s">
         <v>9</v>
@@ -15292,7 +15276,7 @@
         <v>51</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D702" s="3" t="s">
         <v>9</v>
@@ -15312,7 +15296,7 @@
         <v>51</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D703" s="3" t="s">
         <v>9</v>
@@ -15332,7 +15316,7 @@
         <v>51</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D704" s="3" t="s">
         <v>9</v>
@@ -15352,7 +15336,7 @@
         <v>51</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D705" s="3" t="s">
         <v>9</v>
@@ -15372,7 +15356,7 @@
         <v>51</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D706" s="3" t="s">
         <v>9</v>
@@ -15392,7 +15376,7 @@
         <v>51</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D707" s="3" t="s">
         <v>9</v>
@@ -15412,7 +15396,7 @@
         <v>51</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D708" s="3" t="s">
         <v>9</v>
@@ -15432,7 +15416,7 @@
         <v>51</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D709" s="3" t="s">
         <v>9</v>
@@ -15452,7 +15436,7 @@
         <v>62</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D710" s="3" t="s">
         <v>9</v>
@@ -15472,7 +15456,7 @@
         <v>62</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D711" s="3" t="s">
         <v>9</v>
@@ -15492,7 +15476,7 @@
         <v>62</v>
       </c>
       <c r="C712" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D712" s="3" t="s">
         <v>9</v>
@@ -15512,7 +15496,7 @@
         <v>62</v>
       </c>
       <c r="C713" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D713" s="3" t="s">
         <v>9</v>
@@ -15532,7 +15516,7 @@
         <v>62</v>
       </c>
       <c r="C714" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D714" s="3" t="s">
         <v>9</v>
@@ -15552,7 +15536,7 @@
         <v>62</v>
       </c>
       <c r="C715" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D715" s="3" t="s">
         <v>9</v>
@@ -15572,7 +15556,7 @@
         <v>62</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D716" s="3" t="s">
         <v>9</v>
@@ -15592,7 +15576,7 @@
         <v>62</v>
       </c>
       <c r="C717" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D717" s="3" t="s">
         <v>9</v>
@@ -15612,7 +15596,7 @@
         <v>62</v>
       </c>
       <c r="C718" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D718" s="3" t="s">
         <v>9</v>
@@ -15632,7 +15616,7 @@
         <v>62</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D719" s="3" t="s">
         <v>9</v>
@@ -15652,7 +15636,7 @@
         <v>50</v>
       </c>
       <c r="C720" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D720" s="3" t="s">
         <v>9</v>
@@ -15672,7 +15656,7 @@
         <v>50</v>
       </c>
       <c r="C721" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D721" s="3" t="s">
         <v>9</v>
@@ -15692,7 +15676,7 @@
         <v>50</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D722" s="3" t="s">
         <v>9</v>
@@ -15712,7 +15696,7 @@
         <v>50</v>
       </c>
       <c r="C723" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D723" s="3" t="s">
         <v>9</v>
@@ -15732,7 +15716,7 @@
         <v>50</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D724" s="3" t="s">
         <v>9</v>
@@ -15752,7 +15736,7 @@
         <v>50</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D725" s="3" t="s">
         <v>9</v>
@@ -15772,7 +15756,7 @@
         <v>50</v>
       </c>
       <c r="C726" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D726" s="3" t="s">
         <v>9</v>
@@ -15792,7 +15776,7 @@
         <v>50</v>
       </c>
       <c r="C727" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D727" s="3" t="s">
         <v>9</v>
@@ -15812,7 +15796,7 @@
         <v>50</v>
       </c>
       <c r="C728" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D728" s="3" t="s">
         <v>9</v>
@@ -15832,7 +15816,7 @@
         <v>50</v>
       </c>
       <c r="C729" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D729" s="3" t="s">
         <v>9</v>
@@ -15852,7 +15836,7 @@
         <v>61</v>
       </c>
       <c r="C730" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D730" s="3" t="s">
         <v>9</v>
@@ -15872,7 +15856,7 @@
         <v>61</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D731" s="3" t="s">
         <v>9</v>
@@ -15892,7 +15876,7 @@
         <v>61</v>
       </c>
       <c r="C732" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D732" s="3" t="s">
         <v>9</v>
@@ -15912,7 +15896,7 @@
         <v>61</v>
       </c>
       <c r="C733" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D733" s="3" t="s">
         <v>9</v>
@@ -15932,7 +15916,7 @@
         <v>61</v>
       </c>
       <c r="C734" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D734" s="3" t="s">
         <v>9</v>
@@ -15952,7 +15936,7 @@
         <v>61</v>
       </c>
       <c r="C735" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D735" s="3" t="s">
         <v>9</v>
@@ -15972,7 +15956,7 @@
         <v>61</v>
       </c>
       <c r="C736" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D736" s="3" t="s">
         <v>9</v>
@@ -15992,7 +15976,7 @@
         <v>61</v>
       </c>
       <c r="C737" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D737" s="3" t="s">
         <v>9</v>
@@ -16012,7 +15996,7 @@
         <v>61</v>
       </c>
       <c r="C738" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D738" s="3" t="s">
         <v>9</v>
@@ -16032,7 +16016,7 @@
         <v>61</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D739" s="3" t="s">
         <v>9</v>
@@ -16052,7 +16036,7 @@
         <v>49</v>
       </c>
       <c r="C740" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D740" s="3" t="s">
         <v>9</v>
@@ -16072,7 +16056,7 @@
         <v>49</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D741" s="3" t="s">
         <v>9</v>
@@ -16092,7 +16076,7 @@
         <v>49</v>
       </c>
       <c r="C742" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D742" s="3" t="s">
         <v>9</v>
@@ -16112,7 +16096,7 @@
         <v>49</v>
       </c>
       <c r="C743" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D743" s="3" t="s">
         <v>9</v>
@@ -16132,7 +16116,7 @@
         <v>49</v>
       </c>
       <c r="C744" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D744" s="3" t="s">
         <v>9</v>
@@ -16152,7 +16136,7 @@
         <v>49</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D745" s="3" t="s">
         <v>9</v>
@@ -16172,7 +16156,7 @@
         <v>49</v>
       </c>
       <c r="C746" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D746" s="3" t="s">
         <v>9</v>
@@ -16192,7 +16176,7 @@
         <v>49</v>
       </c>
       <c r="C747" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D747" s="3" t="s">
         <v>9</v>
@@ -16212,7 +16196,7 @@
         <v>49</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D748" s="3" t="s">
         <v>9</v>
@@ -16232,7 +16216,7 @@
         <v>49</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D749" s="3" t="s">
         <v>9</v>
@@ -16252,7 +16236,7 @@
         <v>60</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D750" s="3" t="s">
         <v>9</v>
@@ -16272,7 +16256,7 @@
         <v>60</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D751" s="3" t="s">
         <v>9</v>
@@ -16292,7 +16276,7 @@
         <v>60</v>
       </c>
       <c r="C752" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D752" s="3" t="s">
         <v>9</v>
@@ -16312,7 +16296,7 @@
         <v>60</v>
       </c>
       <c r="C753" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D753" s="3" t="s">
         <v>9</v>
@@ -16332,7 +16316,7 @@
         <v>60</v>
       </c>
       <c r="C754" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D754" s="3" t="s">
         <v>9</v>
@@ -16352,7 +16336,7 @@
         <v>60</v>
       </c>
       <c r="C755" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D755" s="3" t="s">
         <v>9</v>
@@ -16372,7 +16356,7 @@
         <v>48</v>
       </c>
       <c r="C756" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D756" s="3" t="s">
         <v>9</v>
@@ -16392,7 +16376,7 @@
         <v>48</v>
       </c>
       <c r="C757" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D757" s="3" t="s">
         <v>9</v>
@@ -16412,7 +16396,7 @@
         <v>48</v>
       </c>
       <c r="C758" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D758" s="3" t="s">
         <v>9</v>
@@ -16432,7 +16416,7 @@
         <v>48</v>
       </c>
       <c r="C759" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D759" s="3" t="s">
         <v>9</v>
@@ -16452,7 +16436,7 @@
         <v>48</v>
       </c>
       <c r="C760" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D760" s="3" t="s">
         <v>9</v>
@@ -16472,7 +16456,7 @@
         <v>48</v>
       </c>
       <c r="C761" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D761" s="3" t="s">
         <v>9</v>
@@ -16492,7 +16476,7 @@
         <v>48</v>
       </c>
       <c r="C762" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D762" s="3" t="s">
         <v>9</v>
@@ -16512,7 +16496,7 @@
         <v>48</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D763" s="3" t="s">
         <v>9</v>
@@ -16532,7 +16516,7 @@
         <v>48</v>
       </c>
       <c r="C764" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D764" s="3" t="s">
         <v>9</v>
@@ -16552,7 +16536,7 @@
         <v>48</v>
       </c>
       <c r="C765" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D765" s="3" t="s">
         <v>9</v>
@@ -16572,7 +16556,7 @@
         <v>59</v>
       </c>
       <c r="C766" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D766" s="3" t="s">
         <v>9</v>
@@ -16592,7 +16576,7 @@
         <v>59</v>
       </c>
       <c r="C767" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D767" s="3" t="s">
         <v>9</v>
@@ -16612,7 +16596,7 @@
         <v>59</v>
       </c>
       <c r="C768" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D768" s="3" t="s">
         <v>9</v>
@@ -16632,7 +16616,7 @@
         <v>59</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D769" s="3" t="s">
         <v>9</v>
@@ -16652,7 +16636,7 @@
         <v>59</v>
       </c>
       <c r="C770" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D770" s="3" t="s">
         <v>9</v>
@@ -16672,7 +16656,7 @@
         <v>59</v>
       </c>
       <c r="C771" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D771" s="3" t="s">
         <v>9</v>
@@ -16692,7 +16676,7 @@
         <v>59</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D772" s="3" t="s">
         <v>9</v>
@@ -16712,7 +16696,7 @@
         <v>59</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D773" s="3" t="s">
         <v>9</v>
@@ -16732,7 +16716,7 @@
         <v>59</v>
       </c>
       <c r="C774" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D774" s="3" t="s">
         <v>9</v>
@@ -16752,7 +16736,7 @@
         <v>59</v>
       </c>
       <c r="C775" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D775" s="3" t="s">
         <v>9</v>
@@ -16772,7 +16756,7 @@
         <v>47</v>
       </c>
       <c r="C776" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D776" s="3" t="s">
         <v>9</v>
@@ -16792,7 +16776,7 @@
         <v>47</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D777" s="3" t="s">
         <v>9</v>
@@ -16812,7 +16796,7 @@
         <v>47</v>
       </c>
       <c r="C778" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D778" s="3" t="s">
         <v>9</v>
@@ -16832,7 +16816,7 @@
         <v>47</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D779" s="3" t="s">
         <v>9</v>
@@ -16852,7 +16836,7 @@
         <v>47</v>
       </c>
       <c r="C780" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D780" s="3" t="s">
         <v>9</v>
@@ -16872,7 +16856,7 @@
         <v>47</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D781" s="3" t="s">
         <v>9</v>
@@ -16892,7 +16876,7 @@
         <v>47</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D782" s="3" t="s">
         <v>9</v>
@@ -16912,7 +16896,7 @@
         <v>47</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D783" s="3" t="s">
         <v>9</v>
@@ -16932,7 +16916,7 @@
         <v>47</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D784" s="3" t="s">
         <v>9</v>
@@ -16952,7 +16936,7 @@
         <v>47</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D785" s="3" t="s">
         <v>9</v>
@@ -16972,7 +16956,7 @@
         <v>58</v>
       </c>
       <c r="C786" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D786" s="3" t="s">
         <v>9</v>
@@ -16992,7 +16976,7 @@
         <v>58</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D787" s="3" t="s">
         <v>9</v>
@@ -17012,7 +16996,7 @@
         <v>58</v>
       </c>
       <c r="C788" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D788" s="3" t="s">
         <v>9</v>
@@ -17032,7 +17016,7 @@
         <v>58</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D789" s="3" t="s">
         <v>9</v>
@@ -17052,7 +17036,7 @@
         <v>58</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D790" s="3" t="s">
         <v>9</v>
@@ -17072,7 +17056,7 @@
         <v>58</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D791" s="3" t="s">
         <v>9</v>
@@ -17092,7 +17076,7 @@
         <v>58</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D792" s="3" t="s">
         <v>9</v>
@@ -17112,7 +17096,7 @@
         <v>58</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D793" s="3" t="s">
         <v>9</v>
@@ -17132,7 +17116,7 @@
         <v>58</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D794" s="3" t="s">
         <v>9</v>
@@ -17152,7 +17136,7 @@
         <v>58</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D795" s="3" t="s">
         <v>9</v>
@@ -17172,7 +17156,7 @@
         <v>46</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D796" s="3" t="s">
         <v>9</v>
@@ -17192,7 +17176,7 @@
         <v>46</v>
       </c>
       <c r="C797" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D797" s="3" t="s">
         <v>9</v>
@@ -17212,7 +17196,7 @@
         <v>46</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D798" s="3" t="s">
         <v>9</v>
@@ -17232,7 +17216,7 @@
         <v>46</v>
       </c>
       <c r="C799" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D799" s="3" t="s">
         <v>9</v>
@@ -17252,7 +17236,7 @@
         <v>46</v>
       </c>
       <c r="C800" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D800" s="3" t="s">
         <v>9</v>
@@ -17272,7 +17256,7 @@
         <v>46</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D801" s="3" t="s">
         <v>9</v>
@@ -17292,7 +17276,7 @@
         <v>46</v>
       </c>
       <c r="C802" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D802" s="3" t="s">
         <v>9</v>
@@ -17312,7 +17296,7 @@
         <v>46</v>
       </c>
       <c r="C803" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D803" s="3" t="s">
         <v>9</v>
@@ -17332,7 +17316,7 @@
         <v>46</v>
       </c>
       <c r="C804" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D804" s="3" t="s">
         <v>9</v>
@@ -17352,7 +17336,7 @@
         <v>46</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D805" s="3" t="s">
         <v>9</v>
@@ -17372,7 +17356,7 @@
         <v>57</v>
       </c>
       <c r="C806" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D806" s="3" t="s">
         <v>9</v>
@@ -17392,7 +17376,7 @@
         <v>57</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D807" s="3" t="s">
         <v>9</v>
@@ -17412,7 +17396,7 @@
         <v>57</v>
       </c>
       <c r="C808" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D808" s="3" t="s">
         <v>9</v>
@@ -17432,7 +17416,7 @@
         <v>57</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D809" s="3" t="s">
         <v>9</v>
@@ -17452,7 +17436,7 @@
         <v>57</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D810" s="3" t="s">
         <v>9</v>
@@ -17472,7 +17456,7 @@
         <v>57</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D811" s="3" t="s">
         <v>9</v>
@@ -17492,7 +17476,7 @@
         <v>57</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D812" s="3" t="s">
         <v>9</v>
@@ -17512,7 +17496,7 @@
         <v>57</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D813" s="3" t="s">
         <v>9</v>
@@ -17532,7 +17516,7 @@
         <v>57</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D814" s="3" t="s">
         <v>9</v>
@@ -17552,7 +17536,7 @@
         <v>57</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D815" s="3" t="s">
         <v>9</v>
@@ -17572,7 +17556,7 @@
         <v>44</v>
       </c>
       <c r="C816" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D816" s="3" t="s">
         <v>9</v>
@@ -17592,7 +17576,7 @@
         <v>44</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D817" s="3" t="s">
         <v>9</v>
@@ -17612,7 +17596,7 @@
         <v>44</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D818" s="3" t="s">
         <v>9</v>
@@ -17632,7 +17616,7 @@
         <v>44</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D819" s="3" t="s">
         <v>9</v>
@@ -17652,7 +17636,7 @@
         <v>44</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D820" s="3" t="s">
         <v>9</v>
@@ -17672,7 +17656,7 @@
         <v>44</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D821" s="3" t="s">
         <v>9</v>
@@ -17692,7 +17676,7 @@
         <v>44</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D822" s="3" t="s">
         <v>9</v>
@@ -17712,7 +17696,7 @@
         <v>44</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D823" s="3" t="s">
         <v>9</v>
@@ -17732,7 +17716,7 @@
         <v>44</v>
       </c>
       <c r="C824" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D824" s="3" t="s">
         <v>9</v>
@@ -17752,7 +17736,7 @@
         <v>44</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D825" s="3" t="s">
         <v>9</v>
@@ -17772,7 +17756,7 @@
         <v>56</v>
       </c>
       <c r="C826" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D826" s="3" t="s">
         <v>9</v>
@@ -17792,7 +17776,7 @@
         <v>56</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D827" s="3" t="s">
         <v>9</v>
@@ -17812,7 +17796,7 @@
         <v>56</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D828" s="3" t="s">
         <v>9</v>
@@ -17832,7 +17816,7 @@
         <v>56</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D829" s="3" t="s">
         <v>9</v>
@@ -17852,7 +17836,7 @@
         <v>56</v>
       </c>
       <c r="C830" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D830" s="3" t="s">
         <v>9</v>
@@ -17872,7 +17856,7 @@
         <v>56</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D831" s="3" t="s">
         <v>9</v>
@@ -17892,7 +17876,7 @@
         <v>56</v>
       </c>
       <c r="C832" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D832" s="3" t="s">
         <v>9</v>
@@ -17912,7 +17896,7 @@
         <v>56</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D833" s="3" t="s">
         <v>9</v>
@@ -17932,7 +17916,7 @@
         <v>56</v>
       </c>
       <c r="C834" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D834" s="3" t="s">
         <v>9</v>
@@ -17952,7 +17936,7 @@
         <v>56</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D835" s="3" t="s">
         <v>9</v>
@@ -17972,7 +17956,7 @@
         <v>55</v>
       </c>
       <c r="C836" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D836" s="3" t="s">
         <v>9</v>
@@ -17992,7 +17976,7 @@
         <v>55</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D837" s="3" t="s">
         <v>9</v>
@@ -18012,7 +17996,7 @@
         <v>55</v>
       </c>
       <c r="C838" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D838" s="3" t="s">
         <v>9</v>
@@ -18032,7 +18016,7 @@
         <v>55</v>
       </c>
       <c r="C839" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D839" s="3" t="s">
         <v>9</v>
@@ -18052,7 +18036,7 @@
         <v>55</v>
       </c>
       <c r="C840" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D840" s="3" t="s">
         <v>9</v>
@@ -18072,7 +18056,7 @@
         <v>55</v>
       </c>
       <c r="C841" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D841" s="3" t="s">
         <v>9</v>
@@ -18092,7 +18076,7 @@
         <v>55</v>
       </c>
       <c r="C842" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D842" s="3" t="s">
         <v>9</v>
@@ -18112,7 +18096,7 @@
         <v>55</v>
       </c>
       <c r="C843" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D843" s="3" t="s">
         <v>9</v>
@@ -18132,7 +18116,7 @@
         <v>55</v>
       </c>
       <c r="C844" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D844" s="3" t="s">
         <v>9</v>
@@ -18152,7 +18136,7 @@
         <v>55</v>
       </c>
       <c r="C845" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D845" s="3" t="s">
         <v>9</v>
@@ -18172,7 +18156,7 @@
         <v>54</v>
       </c>
       <c r="C846" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D846" s="3" t="s">
         <v>9</v>
@@ -18192,7 +18176,7 @@
         <v>54</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D847" s="3" t="s">
         <v>9</v>
@@ -18212,7 +18196,7 @@
         <v>54</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D848" s="3" t="s">
         <v>9</v>
@@ -18232,7 +18216,7 @@
         <v>54</v>
       </c>
       <c r="C849" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D849" s="3" t="s">
         <v>9</v>
@@ -18252,7 +18236,7 @@
         <v>54</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D850" s="3" t="s">
         <v>9</v>
@@ -18272,7 +18256,7 @@
         <v>54</v>
       </c>
       <c r="C851" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D851" s="3" t="s">
         <v>9</v>
@@ -18292,7 +18276,7 @@
         <v>54</v>
       </c>
       <c r="C852" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D852" s="3" t="s">
         <v>9</v>
@@ -18312,7 +18296,7 @@
         <v>54</v>
       </c>
       <c r="C853" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D853" s="3" t="s">
         <v>9</v>
@@ -18332,7 +18316,7 @@
         <v>54</v>
       </c>
       <c r="C854" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D854" s="3" t="s">
         <v>9</v>
@@ -18352,7 +18336,7 @@
         <v>54</v>
       </c>
       <c r="C855" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D855" s="3" t="s">
         <v>9</v>
@@ -18372,7 +18356,7 @@
         <v>53</v>
       </c>
       <c r="C856" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D856" s="3" t="s">
         <v>9</v>
@@ -18392,7 +18376,7 @@
         <v>53</v>
       </c>
       <c r="C857" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D857" s="3" t="s">
         <v>9</v>
@@ -18412,7 +18396,7 @@
         <v>53</v>
       </c>
       <c r="C858" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D858" s="3" t="s">
         <v>9</v>
@@ -18432,7 +18416,7 @@
         <v>53</v>
       </c>
       <c r="C859" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D859" s="3" t="s">
         <v>9</v>
@@ -18452,7 +18436,7 @@
         <v>53</v>
       </c>
       <c r="C860" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D860" s="3" t="s">
         <v>9</v>
@@ -18472,7 +18456,7 @@
         <v>53</v>
       </c>
       <c r="C861" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D861" s="3" t="s">
         <v>9</v>
@@ -18492,7 +18476,7 @@
         <v>53</v>
       </c>
       <c r="C862" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D862" s="3" t="s">
         <v>9</v>
@@ -18512,7 +18496,7 @@
         <v>53</v>
       </c>
       <c r="C863" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D863" s="3" t="s">
         <v>9</v>
@@ -18532,7 +18516,7 @@
         <v>53</v>
       </c>
       <c r="C864" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D864" s="3" t="s">
         <v>9</v>
@@ -18552,7 +18536,7 @@
         <v>53</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D865" s="3" t="s">
         <v>9</v>
@@ -19176,43 +19160,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -19220,7 +19204,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -19261,7 +19245,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -19302,7 +19286,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -19332,7 +19316,7 @@
         <v>7.9902439000000006E-2</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>2</v>
@@ -19343,7 +19327,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -19384,7 +19368,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -19425,7 +19409,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -19466,7 +19450,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -19507,7 +19491,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -19548,7 +19532,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -19589,7 +19573,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -19622,7 +19606,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -19630,7 +19614,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -19671,7 +19655,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -19712,7 +19696,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -19753,7 +19737,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -19794,7 +19778,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -19835,7 +19819,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -19868,7 +19852,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -19876,7 +19860,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -19917,7 +19901,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -19958,7 +19942,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -19999,7 +19983,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -20040,7 +20024,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -20070,7 +20054,7 @@
         <v>0.92781639299999996</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>2</v>
@@ -20081,7 +20065,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -20122,7 +20106,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -20163,7 +20147,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -20208,8 +20192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE19618-B9EC-BC45-998A-F6E82E0905B8}">
   <dimension ref="A1:G894"/>
   <sheetViews>
-    <sheetView zoomScale="224" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="224" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20218,7 +20202,8 @@
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -20234,13 +20219,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -20251,7 +20236,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3">
         <v>10</v>
@@ -20271,7 +20256,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3">
         <v>18</v>
@@ -20291,7 +20276,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3">
         <v>18</v>
@@ -20311,7 +20296,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3">
         <v>15</v>
@@ -20331,7 +20316,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
@@ -20351,7 +20336,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3">
         <v>16</v>
@@ -20371,7 +20356,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3">
         <v>10</v>
@@ -20391,7 +20376,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3">
         <v>14</v>
@@ -20411,7 +20396,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3">
         <v>16</v>
@@ -20431,7 +20416,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3">
         <v>17</v>
@@ -20451,7 +20436,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3">
         <v>15</v>
@@ -20471,7 +20456,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
@@ -20711,7 +20696,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D25" s="3">
         <v>16</v>
@@ -20731,7 +20716,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3">
         <v>12</v>
@@ -20751,7 +20736,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3">
         <v>20</v>
@@ -20771,7 +20756,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3">
         <v>15</v>
@@ -20792,7 +20777,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D29" s="3">
         <v>8</v>
@@ -20812,7 +20797,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D30" s="3">
         <v>17</v>
@@ -20832,7 +20817,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D31" s="3">
         <v>16</v>
@@ -20852,7 +20837,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D32" s="3">
         <v>13</v>
@@ -20872,7 +20857,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D33" s="3">
         <v>15</v>
@@ -20892,7 +20877,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D34" s="3">
         <v>13</v>
@@ -20912,7 +20897,7 @@
         <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D35" s="3">
         <v>17</v>
@@ -20932,7 +20917,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D36" s="3">
         <v>15</v>
@@ -27947,488 +27932,4 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0065D709-741A-D046-98AD-3D8740A949DE}">
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="247" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <f>ROUND(77.1818181818181,2)</f>
-        <v>77.180000000000007</v>
-      </c>
-      <c r="D2" s="5">
-        <f>ROUND(79.2727272727272,2)</f>
-        <v>79.27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="5">
-        <v>79</v>
-      </c>
-      <c r="D3" s="5">
-        <v>84</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="5">
-        <v>79</v>
-      </c>
-      <c r="D4" s="5">
-        <v>80</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="5">
-        <v>78</v>
-      </c>
-      <c r="D5" s="5">
-        <v>78</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="5">
-        <v>84</v>
-      </c>
-      <c r="D7" s="5">
-        <v>82</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="5">
-        <v>77</v>
-      </c>
-      <c r="D8" s="5">
-        <v>79</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5">
-        <v>78</v>
-      </c>
-      <c r="D9" s="5">
-        <v>78</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="5">
-        <v>78</v>
-      </c>
-      <c r="D10" s="5">
-        <v>82</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="5">
-        <v>77</v>
-      </c>
-      <c r="D11" s="5">
-        <v>80</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="5">
-        <v>77</v>
-      </c>
-      <c r="D12" s="5">
-        <v>78</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="5">
-        <v>81</v>
-      </c>
-      <c r="D13" s="5">
-        <v>78</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="5">
-        <v>81</v>
-      </c>
-      <c r="D14" s="5">
-        <v>77</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
-        <f>ROUND(64.6363636363636,2)</f>
-        <v>64.64</v>
-      </c>
-      <c r="D15" s="5">
-        <f>ROUND(67.0909090909091,2)</f>
-        <v>67.09</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="5">
-        <v>68</v>
-      </c>
-      <c r="D16" s="5">
-        <v>71</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="5">
-        <v>67</v>
-      </c>
-      <c r="D17" s="5">
-        <v>68</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="5">
-        <v>65</v>
-      </c>
-      <c r="D18" s="5">
-        <v>68</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="5">
-        <v>67</v>
-      </c>
-      <c r="D19" s="5">
-        <v>72</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="5">
-        <v>73</v>
-      </c>
-      <c r="D20" s="5">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="5">
-        <v>65</v>
-      </c>
-      <c r="D21" s="5">
-        <v>67</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5">
-        <v>65</v>
-      </c>
-      <c r="D22" s="5">
-        <v>67</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="5">
-        <v>65</v>
-      </c>
-      <c r="D23" s="5">
-        <v>68</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="5">
-        <v>66</v>
-      </c>
-      <c r="D24" s="5">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="5">
-        <v>66</v>
-      </c>
-      <c r="D25" s="5">
-        <v>67</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="5">
-        <v>65</v>
-      </c>
-      <c r="D26" s="5">
-        <v>67</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="5">
-        <v>66</v>
-      </c>
-      <c r="D27" s="5">
-        <v>67</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>